--- a/Survey/Survey.xlsx
+++ b/Survey/Survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E128172-0CFA-43D4-88A5-F4EE879E9435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77FDD25-17CB-4C43-BD8F-4EA48DE062B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10068" yWindow="0" windowWidth="20988" windowHeight="16824" xr2:uid="{E0DC5D81-F33F-5746-8742-A0C3CFF575C0}"/>
+    <workbookView xWindow="1536" yWindow="456" windowWidth="20988" windowHeight="16824" xr2:uid="{E0DC5D81-F33F-5746-8742-A0C3CFF575C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -731,7 +731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -747,7 +747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6.1</v>
       </c>
@@ -755,7 +755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -771,15 +771,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -829,13 +829,13 @@
           <x14:formula1>
             <xm:f>Selection!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:C14</xm:sqref>
+          <xm:sqref>C11 C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0297983-A784-423B-8114-FA64207BEC05}">
           <x14:formula1>
             <xm:f>Selection!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C10 C13 C15</xm:sqref>
+          <xm:sqref>C10 C13 C15 C9 C12 C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD02B385-640C-E449-9F9A-E715786E8855}">
           <x14:formula1>
